--- a/docs/電腦打字國中英文甲組決賽名冊.xlsx
+++ b/docs/電腦打字國中英文甲組決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦打字國中英文甲組決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="190">
   <si>
     <t>序</t>
   </si>
@@ -48,49 +48,73 @@
     <t>大甲區大甲國中</t>
   </si>
   <si>
-    <t>鍾旻翰</t>
-  </si>
-  <si>
-    <t>張曼莉</t>
-  </si>
-  <si>
-    <t>dx28x2</t>
-  </si>
-  <si>
-    <t>f16xb7</t>
+    <t>陳柏諺</t>
+  </si>
+  <si>
+    <t>劉羚蓁</t>
+  </si>
+  <si>
+    <t>cd16f8</t>
+  </si>
+  <si>
+    <t>bjk14tv4</t>
+  </si>
+  <si>
+    <t>郭靜怡</t>
+  </si>
+  <si>
+    <t>ygw84fr4</t>
+  </si>
+  <si>
+    <t>c43yg2</t>
   </si>
   <si>
     <t>大甲區順天國中</t>
   </si>
   <si>
-    <t>李家陞</t>
+    <t>陳亮銓</t>
   </si>
   <si>
     <t>張志輝</t>
   </si>
   <si>
-    <t>t67pe7</t>
-  </si>
-  <si>
-    <t>h57t8</t>
+    <t>wh94j3</t>
+  </si>
+  <si>
+    <t>kf9x7</t>
   </si>
   <si>
     <t>伍勇全</t>
   </si>
   <si>
-    <t>yg67fr9</t>
-  </si>
-  <si>
-    <t>jk55xb3</t>
-  </si>
-  <si>
-    <t>彭冠霖</t>
-  </si>
-  <si>
-    <t>fr6y4</t>
-  </si>
-  <si>
-    <t>nc16d6</t>
+    <t>jk32rs5</t>
+  </si>
+  <si>
+    <t>kf93yg8</t>
+  </si>
+  <si>
+    <t>大肚區大道國中</t>
+  </si>
+  <si>
+    <t>陳沅希</t>
+  </si>
+  <si>
+    <t>施俊楠</t>
+  </si>
+  <si>
+    <t>dxb89a4</t>
+  </si>
+  <si>
+    <t>hp51gw4</t>
+  </si>
+  <si>
+    <t>陳豈唯</t>
+  </si>
+  <si>
+    <t>anc44m7</t>
+  </si>
+  <si>
+    <t>x36bj5</t>
   </si>
   <si>
     <t>大里區光榮國中</t>
@@ -102,55 +126,58 @@
     <t>宋沛寰</t>
   </si>
   <si>
-    <t>gwh9my8</t>
-  </si>
-  <si>
-    <t>gwh67kf5</t>
+    <t>s49s3</t>
+  </si>
+  <si>
+    <t>whp64x2</t>
+  </si>
+  <si>
+    <t>邱俊棠</t>
+  </si>
+  <si>
+    <t>紀雅雯</t>
+  </si>
+  <si>
+    <t>wh62nc3</t>
+  </si>
+  <si>
+    <t>jk5an2</t>
+  </si>
+  <si>
+    <t>邱彥欣</t>
+  </si>
+  <si>
+    <t>林麗雪</t>
+  </si>
+  <si>
+    <t>y93w7</t>
+  </si>
+  <si>
+    <t>rs81bj8</t>
+  </si>
+  <si>
+    <t>湯采恩</t>
+  </si>
+  <si>
+    <t>tv79sm4</t>
+  </si>
+  <si>
+    <t>jk22g9</t>
   </si>
   <si>
     <t>大里區成功國中</t>
   </si>
   <si>
-    <t>蕭承文</t>
-  </si>
-  <si>
-    <t>許榮栓</t>
-  </si>
-  <si>
-    <t>pet51t5</t>
-  </si>
-  <si>
-    <t>dx21nc7</t>
-  </si>
-  <si>
-    <t>陳致中</t>
+    <t>林佑星</t>
   </si>
   <si>
     <t>鄭夙芬</t>
   </si>
   <si>
-    <t>an82bj5</t>
-  </si>
-  <si>
-    <t>wh53b2</t>
-  </si>
-  <si>
-    <t>雷世緯</t>
-  </si>
-  <si>
-    <t>bj69kf2</t>
-  </si>
-  <si>
-    <t>bjk23w8</t>
-  </si>
-  <si>
-    <t>陳致嘉</t>
-  </si>
-  <si>
-    <t>wh74kf8</t>
-  </si>
-  <si>
-    <t>sm2g5</t>
+    <t>frs76m7</t>
+  </si>
+  <si>
+    <t>hp3j5</t>
   </si>
   <si>
     <t>大里區爽文國中</t>
@@ -162,76 +189,52 @@
     <t>江文男</t>
   </si>
   <si>
-    <t>wh52y4</t>
-  </si>
-  <si>
-    <t>n36dx7</t>
+    <t>a91g8</t>
+  </si>
+  <si>
+    <t>ncd50e7</t>
   </si>
   <si>
     <t>郭佩榕</t>
   </si>
   <si>
-    <t>et70t3</t>
-  </si>
-  <si>
-    <t>xb38jk6</t>
-  </si>
-  <si>
-    <t>郭昀萱</t>
-  </si>
-  <si>
-    <t>v65bj5</t>
-  </si>
-  <si>
-    <t>bjk89n8</t>
-  </si>
-  <si>
-    <t>太平區中平國中</t>
-  </si>
-  <si>
-    <t>李東霖</t>
-  </si>
-  <si>
-    <t>梁峻貿</t>
-  </si>
-  <si>
-    <t>wh7j2</t>
-  </si>
-  <si>
-    <t>etv82n4</t>
-  </si>
-  <si>
-    <t>北屯區東山高中</t>
-  </si>
-  <si>
-    <t>白允遨</t>
-  </si>
-  <si>
-    <t>鍾蕙如</t>
-  </si>
-  <si>
-    <t>e4e5</t>
-  </si>
-  <si>
-    <t>ncd77nc7</t>
-  </si>
-  <si>
-    <t>楊承儒</t>
-  </si>
-  <si>
-    <t>y22pe6</t>
-  </si>
-  <si>
-    <t>hp91pe2</t>
-  </si>
-  <si>
-    <t>林邑槿</t>
-  </si>
-  <si>
-    <t>n37et7</t>
-  </si>
-  <si>
-    <t>gw7r8</t>
+    <t>s25h7</t>
+  </si>
+  <si>
+    <t>rs41sm7</t>
+  </si>
+  <si>
+    <t>林采璇</t>
+  </si>
+  <si>
+    <t>my44g7</t>
+  </si>
+  <si>
+    <t>xb42m1</t>
+  </si>
+  <si>
+    <t>鍾睿騏</t>
+  </si>
+  <si>
+    <t>my88xb5</t>
+  </si>
+  <si>
+    <t>pet72an4</t>
+  </si>
+  <si>
+    <t>大雅區大雅國中</t>
+  </si>
+  <si>
+    <t>陳妍伊</t>
+  </si>
+  <si>
+    <t>張光昭</t>
+  </si>
+  <si>
+    <t>b85rs6</t>
+  </si>
+  <si>
+    <t>myg87my7</t>
   </si>
   <si>
     <t>北屯區崇德國中</t>
@@ -240,79 +243,103 @@
     <t>吳孟熹</t>
   </si>
   <si>
-    <t>游謹榕</t>
-  </si>
-  <si>
-    <t>xb6jk8</t>
-  </si>
-  <si>
-    <t>anc9w8</t>
-  </si>
-  <si>
-    <t>楊承諺</t>
-  </si>
-  <si>
     <t>林秀珍</t>
   </si>
   <si>
-    <t>ncd63et6</t>
-  </si>
-  <si>
-    <t>etv47gw7</t>
+    <t>nc2f5</t>
+  </si>
+  <si>
+    <t>dxb90my3</t>
+  </si>
+  <si>
+    <t>北屯區衛道高中</t>
+  </si>
+  <si>
+    <t>劉韋辰</t>
+  </si>
+  <si>
+    <t>郭學政</t>
+  </si>
+  <si>
+    <t>cdx16yg2</t>
+  </si>
+  <si>
+    <t>h67tv2</t>
+  </si>
+  <si>
+    <t>許詩羽</t>
+  </si>
+  <si>
+    <t>k19j2</t>
+  </si>
+  <si>
+    <t>k49c7</t>
+  </si>
+  <si>
+    <t>陳忠甫</t>
+  </si>
+  <si>
+    <t>t35g3</t>
+  </si>
+  <si>
+    <t>pet98y4</t>
+  </si>
+  <si>
+    <t>林俊宏</t>
+  </si>
+  <si>
+    <t>whp72kf7</t>
+  </si>
+  <si>
+    <t>x19et8</t>
   </si>
   <si>
     <t>北區五權國中</t>
   </si>
   <si>
-    <t>臧浩任</t>
+    <t>何藩</t>
   </si>
   <si>
     <t>李黛君</t>
   </si>
   <si>
-    <t>tv50f7</t>
-  </si>
-  <si>
-    <t>pe19wh7</t>
-  </si>
-  <si>
-    <t>劉凱倫</t>
-  </si>
-  <si>
-    <t>xb57d7</t>
-  </si>
-  <si>
-    <t>fr83y7</t>
-  </si>
-  <si>
-    <t>北區雙十國中</t>
-  </si>
-  <si>
-    <t>官翰威</t>
-  </si>
-  <si>
-    <t>蔡禮文</t>
-  </si>
-  <si>
-    <t>et98r7</t>
-  </si>
-  <si>
-    <t>kf94c2</t>
-  </si>
-  <si>
-    <t>西屯區安和國中</t>
-  </si>
-  <si>
-    <t>楊子頡</t>
-  </si>
-  <si>
-    <t>郭烱彬</t>
-  </si>
-  <si>
-    <t>v18d4</t>
-  </si>
-  <si>
-    <t>my66j3</t>
+    <t>cd96fr5</t>
+  </si>
+  <si>
+    <t>jk89et2</t>
+  </si>
+  <si>
+    <t>蘇柏銓</t>
+  </si>
+  <si>
+    <t>kf25x7</t>
+  </si>
+  <si>
+    <t>dx32sm7</t>
+  </si>
+  <si>
+    <t>后里區后綜高中</t>
+  </si>
+  <si>
+    <t>蕭丞佑</t>
+  </si>
+  <si>
+    <t>張民富</t>
+  </si>
+  <si>
+    <t>hp54hp6</t>
+  </si>
+  <si>
+    <t>xb87et9</t>
+  </si>
+  <si>
+    <t>鄭又綺</t>
+  </si>
+  <si>
+    <t>jk11k8</t>
+  </si>
+  <si>
+    <t>sm37nc3</t>
   </si>
   <si>
     <t>西屯區漢口國中</t>
@@ -321,46 +348,61 @@
     <t>賴宗輝</t>
   </si>
   <si>
-    <t>黃仁芷</t>
-  </si>
-  <si>
-    <t>hp97m5</t>
-  </si>
-  <si>
-    <t>tv51n3</t>
-  </si>
-  <si>
-    <t>鄒宸瑜</t>
-  </si>
-  <si>
-    <t>r22d3</t>
-  </si>
-  <si>
-    <t>y58fr5</t>
-  </si>
-  <si>
-    <t>李承杰</t>
-  </si>
-  <si>
-    <t>et41j4</t>
-  </si>
-  <si>
-    <t>g86t3</t>
+    <t>顏永山</t>
+  </si>
+  <si>
+    <t>rs15dx5</t>
+  </si>
+  <si>
+    <t>xb29v8</t>
   </si>
   <si>
     <t>西屯區福科國中</t>
   </si>
   <si>
-    <t>王韡蓁</t>
-  </si>
-  <si>
-    <t>何宜霖</t>
-  </si>
-  <si>
-    <t>pe73r2</t>
-  </si>
-  <si>
-    <t>fr85s7</t>
+    <t>蕭人韋</t>
+  </si>
+  <si>
+    <t>廖勝雍</t>
+  </si>
+  <si>
+    <t>s90k7</t>
+  </si>
+  <si>
+    <t>bj45y6</t>
+  </si>
+  <si>
+    <t>李承原</t>
+  </si>
+  <si>
+    <t>yg84gw7</t>
+  </si>
+  <si>
+    <t>j86r3</t>
+  </si>
+  <si>
+    <t>西區向上國中</t>
+  </si>
+  <si>
+    <t>張志玲</t>
+  </si>
+  <si>
+    <t>林義雄</t>
+  </si>
+  <si>
+    <t>wh9my1</t>
+  </si>
+  <si>
+    <t>xbj82v5</t>
+  </si>
+  <si>
+    <t>洪晨勛</t>
+  </si>
+  <si>
+    <t>d23xb9</t>
+  </si>
+  <si>
+    <t>bj27pe9</t>
   </si>
   <si>
     <t>西區居仁國中</t>
@@ -372,70 +414,46 @@
     <t>吳智偉</t>
   </si>
   <si>
-    <t>jk29b4</t>
-  </si>
-  <si>
-    <t>tv43c6</t>
-  </si>
-  <si>
-    <t>西區忠明高中</t>
-  </si>
-  <si>
-    <t>曾宥凱</t>
-  </si>
-  <si>
-    <t>劉容菁</t>
-  </si>
-  <si>
-    <t>nc53x6</t>
-  </si>
-  <si>
-    <t>h91v3</t>
+    <t>pe28s6</t>
+  </si>
+  <si>
+    <t>et39e1</t>
   </si>
   <si>
     <t>南屯區大業國中</t>
   </si>
   <si>
-    <t>王粲宇</t>
-  </si>
-  <si>
-    <t>陳易紘</t>
-  </si>
-  <si>
-    <t>smy9fr7</t>
-  </si>
-  <si>
-    <t>pe50c8</t>
-  </si>
-  <si>
-    <t>王冠勛</t>
-  </si>
-  <si>
-    <t>nc66gw7</t>
-  </si>
-  <si>
-    <t>v80n2</t>
-  </si>
-  <si>
-    <t>陳子龍</t>
-  </si>
-  <si>
-    <t>tv33hp2</t>
-  </si>
-  <si>
-    <t>et76r9</t>
-  </si>
-  <si>
     <t>邱柏融</t>
   </si>
   <si>
     <t>陳嘉麟</t>
   </si>
   <si>
-    <t>rs96tv3</t>
-  </si>
-  <si>
-    <t>fr72gw6</t>
+    <t>w89k3</t>
+  </si>
+  <si>
+    <t>v51my9</t>
+  </si>
+  <si>
+    <t>張智斌</t>
+  </si>
+  <si>
+    <t>江俞學</t>
+  </si>
+  <si>
+    <t>j90kf4</t>
+  </si>
+  <si>
+    <t>whp18h7</t>
+  </si>
+  <si>
+    <t>葉育任</t>
+  </si>
+  <si>
+    <t>sm97j8</t>
+  </si>
+  <si>
+    <t>jkf52f7</t>
   </si>
   <si>
     <t>南區崇倫國中</t>
@@ -444,142 +462,109 @@
     <t>盧易辰</t>
   </si>
   <si>
-    <t>林麗萍</t>
-  </si>
-  <si>
-    <t>kfr5w3</t>
-  </si>
-  <si>
-    <t>d80et7</t>
+    <t>黃忠志</t>
+  </si>
+  <si>
+    <t>hp67m3</t>
+  </si>
+  <si>
+    <t>g87nc8</t>
   </si>
   <si>
     <t>王頎崴</t>
   </si>
   <si>
-    <t>dx54d3</t>
-  </si>
-  <si>
-    <t>v51e6</t>
-  </si>
-  <si>
-    <t>黃筱崴</t>
-  </si>
-  <si>
-    <t>曾曉芬</t>
-  </si>
-  <si>
-    <t>fr26gw5</t>
-  </si>
-  <si>
-    <t>dx58tv7</t>
+    <t>sm61d6</t>
+  </si>
+  <si>
+    <t>jkf61tv5</t>
   </si>
   <si>
     <t>烏日區光德國中</t>
   </si>
   <si>
-    <t>潘佰宏</t>
+    <t>蘇俊榤</t>
   </si>
   <si>
     <t>陳立唐</t>
   </si>
   <si>
-    <t>rsm25xb8</t>
-  </si>
-  <si>
-    <t>sm14x3</t>
+    <t>my4j4</t>
+  </si>
+  <si>
+    <t>gw30pe6</t>
   </si>
   <si>
     <t>林嘉宏</t>
   </si>
   <si>
-    <t>dx55r4</t>
-  </si>
-  <si>
-    <t>nc95gw1</t>
+    <t>林家輝</t>
+  </si>
+  <si>
+    <t>dx45kf4</t>
+  </si>
+  <si>
+    <t>whp98tv2</t>
   </si>
   <si>
     <t>烏日區明道中學</t>
   </si>
   <si>
-    <t>郭芙榕</t>
-  </si>
-  <si>
-    <t>黃淑珍</t>
-  </si>
-  <si>
-    <t>ncd22b2</t>
-  </si>
-  <si>
-    <t>rs21j4</t>
-  </si>
-  <si>
-    <t>林建佑</t>
-  </si>
-  <si>
-    <t>y49p7</t>
-  </si>
-  <si>
-    <t>jkf18g5</t>
-  </si>
-  <si>
-    <t>莊書杰</t>
-  </si>
-  <si>
-    <t>nc34d4</t>
-  </si>
-  <si>
-    <t>x49fr2</t>
+    <t>梁芸晰</t>
+  </si>
+  <si>
+    <t>戴暐真</t>
+  </si>
+  <si>
+    <t>v69p6</t>
+  </si>
+  <si>
+    <t>jk89dx2</t>
+  </si>
+  <si>
+    <t>巫紹綸</t>
+  </si>
+  <si>
+    <t>g15sm7</t>
+  </si>
+  <si>
+    <t>y24b2</t>
+  </si>
+  <si>
+    <t>陳鈞澤</t>
+  </si>
+  <si>
+    <t>dxb17b6</t>
+  </si>
+  <si>
+    <t>nc30h6</t>
   </si>
   <si>
     <t>潭子區潭秀國中</t>
   </si>
   <si>
+    <t>楊易昇</t>
+  </si>
+  <si>
+    <t>王金村</t>
+  </si>
+  <si>
+    <t>hpe88my2</t>
+  </si>
+  <si>
+    <t>pe84e9</t>
+  </si>
+  <si>
     <t>洪翌愷</t>
   </si>
   <si>
-    <t>許錫誠</t>
-  </si>
-  <si>
-    <t>nc16v7</t>
-  </si>
-  <si>
-    <t>xb39dx8</t>
-  </si>
-  <si>
-    <t>王晨諺</t>
-  </si>
-  <si>
-    <t>pet76pe8</t>
-  </si>
-  <si>
-    <t>wh39pe2</t>
-  </si>
-  <si>
-    <t>豐原區豐東國中</t>
-  </si>
-  <si>
-    <t>劉育丞</t>
-  </si>
-  <si>
-    <t>曾希正</t>
-  </si>
-  <si>
-    <t>whp65dx2</t>
-  </si>
-  <si>
-    <t>bjk12v4</t>
-  </si>
-  <si>
-    <t>陳彥廷</t>
-  </si>
-  <si>
-    <t>史國維</t>
-  </si>
-  <si>
-    <t>rsm44nc9</t>
-  </si>
-  <si>
-    <t>et43f4</t>
+    <t>謝岳</t>
+  </si>
+  <si>
+    <t>b19h3</t>
+  </si>
+  <si>
+    <t>etv72rs3</t>
   </si>
   <si>
     <t>豐原區豐原國中</t>
@@ -591,10 +576,19 @@
     <t>黃政斌</t>
   </si>
   <si>
-    <t>bj62tv5</t>
-  </si>
-  <si>
-    <t>g77k1</t>
+    <t>cd87k7</t>
+  </si>
+  <si>
+    <t>rs68gw6</t>
+  </si>
+  <si>
+    <t>陳柏辰</t>
+  </si>
+  <si>
+    <t>cdx28kf2</t>
+  </si>
+  <si>
+    <t>et55s9</t>
   </si>
 </sst>
 </file>
@@ -1600,7 +1594,7 @@
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1657,19 +1651,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1680,13 +1674,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>19</v>
@@ -1703,13 +1697,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>22</v>
@@ -1749,19 +1743,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1772,19 +1766,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1795,13 +1789,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>39</v>
@@ -1818,19 +1812,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1841,19 +1835,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1864,19 +1858,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1887,19 +1881,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1910,19 +1904,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1933,19 +1927,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1956,19 +1950,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1979,19 +1973,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2002,19 +1996,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2025,19 +2019,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2048,13 +2042,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>83</v>
@@ -2071,13 +2065,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>86</v>
@@ -2094,19 +2088,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2117,19 +2111,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2140,19 +2134,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2163,19 +2157,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2186,19 +2180,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2209,19 +2203,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="F27" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="G27" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2232,19 +2226,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2255,19 +2249,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2278,19 +2272,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2301,19 +2295,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="G31" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2324,19 +2318,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D32" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2347,19 +2341,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2370,19 +2364,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2393,19 +2387,19 @@
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="F35" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2416,19 +2410,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2439,19 +2433,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2462,19 +2456,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2485,19 +2479,19 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="F39" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="G39" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2508,13 +2502,13 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>165</v>
@@ -2531,13 +2525,13 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>168</v>
@@ -2554,19 +2548,19 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2577,13 +2571,13 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>176</v>
@@ -2600,19 +2594,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2623,7 +2617,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>183</v>
@@ -2646,19 +2640,19 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="G46" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
